--- a/ozone/multistate/ANO-RCC-VTZP/ozone_110.00/ozone_110.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_110.00/ozone_110.00_energies.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7567755191</v>
+        <v>-0.5605909413</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.51014484</v>
+        <v>-224.73419782</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.26692036</v>
+        <v>-225.29478876</v>
       </c>
       <c r="E2" t="n">
-        <v>-224.5092728217</v>
+        <v>-224.5092728215</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7694682652</v>
+        <v>-0.5691981028999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49831439</v>
+        <v>-224.66645069</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.26778265</v>
+        <v>-225.23564879</v>
       </c>
       <c r="E3" t="n">
-        <v>-224.5092728217</v>
+        <v>-224.5092728215</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8381377812</v>
+        <v>-0.5711951382</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.4262652</v>
+        <v>-224.64262073</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.26440298</v>
+        <v>-225.21381587</v>
       </c>
       <c r="E4" t="n">
-        <v>-224.5092728217</v>
+        <v>-224.5092728215</v>
       </c>
     </row>
   </sheetData>
